--- a/3.results/model_selection/mouette_melanocephale_R_3_blocks_assemblage.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_R_3_blocks_assemblage.xlsx
@@ -1,109 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4117BE27-A2B2-4057-8A69-395D1EA9D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="blocks" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhat_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d2_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_log_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_mean_CHL + mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + log_mean_CHL + mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_mean_CHL + mean_SSH + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log_bathymetry + log_mean_CHL + mean_SSH + mean_autumn_SST</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>rhat_max</t>
+  </si>
+  <si>
+    <t>ESS_min</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr2</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d2_gr2</t>
+  </si>
+  <si>
+    <t>waic_d1</t>
+  </si>
+  <si>
+    <t>waic_d2</t>
+  </si>
+  <si>
+    <t>waic_tot</t>
+  </si>
+  <si>
+    <t>CV_d1</t>
+  </si>
+  <si>
+    <t>CV_d2</t>
+  </si>
+  <si>
+    <t>CV_tot</t>
+  </si>
+  <si>
+    <t>beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>beta_log_mean_CHL</t>
+  </si>
+  <si>
+    <t>beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_log_bathymetry</t>
+  </si>
+  <si>
+    <t>sd_beta_log_mean_CHL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>log_bathymetry</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH</t>
+  </si>
+  <si>
+    <t>mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + log_mean_CHL + mean_SSH</t>
+  </si>
+  <si>
+    <t>log_bathymetry + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>log_mean_CHL + mean_SSH + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>log_bathymetry + log_mean_CHL + mean_SSH + mean_autumn_SST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,7 +153,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -159,15 +214,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFB6C1"/>
-        <name val="Calibri"/>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,439 +579,424 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.144</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.024</v>
+      </c>
+      <c r="C2" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.17</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>0.52</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.49</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>390</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>585</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>975</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>388</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>-0.62</v>
+      <c r="L2" s="1">
+        <v>584</v>
+      </c>
+      <c r="M2" s="1">
+        <v>972</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-0.65</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>0.47</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.17</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>392</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>583</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>975</v>
       </c>
-      <c r="K3" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="L3" s="1" t="n">
+      <c r="K3" s="1">
+        <v>389</v>
+      </c>
+      <c r="L3" s="1">
         <v>583</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="M3" s="1">
+        <v>972</v>
+      </c>
+      <c r="N3" s="1">
         <v>-0.53</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>0.6</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="1">
         <v>-0.78</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="1">
         <v>0.72</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="1">
         <v>0.68</v>
       </c>
       <c r="T3" s="1"/>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="B4" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="C4" s="1">
+        <v>105.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.52</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>390</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>580</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>970</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>387</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="1">
         <v>580</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="1">
         <v>967</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="O4" s="1" t="n">
+      <c r="N4" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="O4" s="1">
         <v>0.05</v>
       </c>
-      <c r="P4" s="1" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="Q4" s="1" t="n">
+      <c r="P4" s="1">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="Q4" s="1">
         <v>-0.31</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="1">
         <v>0.9</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="1">
         <v>0.71</v>
       </c>
-      <c r="T4" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="U4" s="1" t="n">
+      <c r="T4" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="U4" s="1">
         <v>0.84</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.089</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.17</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0.52</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="F5" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
         <v>392</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>583</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>975</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="M5" s="1" t="n">
+      <c r="K5" s="1">
+        <v>390</v>
+      </c>
+      <c r="L5" s="1">
+        <v>581</v>
+      </c>
+      <c r="M5" s="1">
         <v>971</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="1">
         <v>0.08</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="1">
         <v>-1.31</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="1">
         <v>0.73</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="1">
         <v>0.63</v>
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1.018</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="C6" s="1">
+        <v>124.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.51</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.49</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>390</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>581</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>971</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="L6" s="1" t="n">
+      <c r="K6" s="1">
+        <v>388</v>
+      </c>
+      <c r="L6" s="1">
         <v>581</v>
       </c>
-      <c r="M6" s="1" t="n">
-        <v>968</v>
+      <c r="M6" s="1">
+        <v>969</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="1">
         <v>0.85</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="1">
         <v>-0.68</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="n">
-        <v>0.56</v>
+      <c r="S6" s="1">
+        <v>0.56000000000000005</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="1" t="n">
-        <v>0.74</v>
+      <c r="U6" s="1">
+        <v>0.73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.51</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H7" s="1" t="n">
+      <c r="F7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
         <v>392</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>582</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>974</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>389</v>
       </c>
-      <c r="L7" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>971</v>
+      <c r="L7" s="1">
+        <v>581</v>
+      </c>
+      <c r="M7" s="1">
+        <v>970</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>0.24</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>-0.97</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="1">
         <v>-0.24</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="1">
         <v>0.78</v>
       </c>
-      <c r="T7" s="1" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="U7" s="1" t="n">
+      <c r="T7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="U7" s="1">
         <v>0.76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.074</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>114</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.52</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="F8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>392</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>582</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>974</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="L8" s="1" t="n">
+      <c r="K8" s="1">
+        <v>389</v>
+      </c>
+      <c r="L8" s="1">
         <v>581</v>
       </c>
-      <c r="M8" s="1" t="n">
-        <v>971</v>
+      <c r="M8" s="1">
+        <v>970</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="1">
         <v>-1.26</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1" t="n">
-        <v>0.55</v>
+      <c r="T8" s="1">
+        <v>0.55000000000000004</v>
       </c>
       <c r="U8" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="between">
+  <conditionalFormatting sqref="D2:G8">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G8">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="between">
-      <formula>0.1</formula>
-      <formula>0.9</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>H2&lt;393</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -962,11 +1005,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>H2&lt;393</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>I2&lt;583</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -975,11 +1018,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>I2&lt;583</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>J2&lt;973</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -988,11 +1031,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>J2&lt;973</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>K2&lt;390</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1001,11 +1044,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>K2&lt;390</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>L2&lt;583</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1014,11 +1057,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>L2&lt;583</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>M2&lt;970</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1027,11 +1070,8 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>M2&lt;970</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>